--- a/classfiers/bloated/svm/bloated-svm-sigmoid-results.xlsx
+++ b/classfiers/bloated/svm/bloated-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01643356643356644</v>
+        <v>0.01914375217542639</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.06578489383919249</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3923076923076923</v>
+        <v>0.4664404223227753</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01401515151515154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8868984896382157</v>
+        <v>0.3125874125874126</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2619309799789252</v>
+        <v>0.3727912961849614</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/svm/bloated-svm-sigmoid-results.xlsx
+++ b/classfiers/bloated/svm/bloated-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01914375217542639</v>
+        <v>0.01119402985074625</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06578489383919249</v>
+        <v>0.0630182421227197</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4664404223227753</v>
+        <v>0.4866576209859792</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3125874125874126</v>
+        <v>0.27625</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3727912961849614</v>
+        <v>0.367423978591889</v>
       </c>
     </row>
   </sheetData>
